--- a/Box/raw/Stores.xlsx
+++ b/Box/raw/Stores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Din\Desktop\Box\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TapNham\MyMapRepeating\Box\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1450CC96-73C4-439D-9E02-5E3C02612EAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4856C930-7EBE-48B8-AEC1-3C1593F2C258}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{A6EB3E9A-D8AD-4B9D-AEBD-A2465BC4A49A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
   <si>
     <t>title</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Bán bánh cuốn, bánh xèo, chả lụa, cơm tấm.</t>
   </si>
   <si>
-    <t>0988232411, nhattan12@gmail.com</t>
-  </si>
-  <si>
     <t>0988123588</t>
   </si>
   <si>
@@ -249,15 +246,6 @@
   </si>
   <si>
     <t>10.849602, 106.770299</t>
-  </si>
-  <si>
-    <t>0985632252,phanminh12@gmail.com</t>
-  </si>
-  <si>
-    <t>0866231115,ngocngan71@gmail.com</t>
-  </si>
-  <si>
-    <t>congthang@gmail.com,01689452263</t>
   </si>
   <si>
     <t>08:00-23:00</t>
@@ -330,10 +318,37 @@
     <t>Tạp hóa Hường</t>
   </si>
   <si>
-    <t>0984172639,hoalanbk@gmail.com</t>
-  </si>
-  <si>
-    <t>0987566333,huongban@gmail.com</t>
+    <t>num_products</t>
+  </si>
+  <si>
+    <t>num_comment</t>
+  </si>
+  <si>
+    <t>num_points</t>
+  </si>
+  <si>
+    <t>0985632252</t>
+  </si>
+  <si>
+    <t>0988232411</t>
+  </si>
+  <si>
+    <t>0866231115</t>
+  </si>
+  <si>
+    <t>0984172639</t>
+  </si>
+  <si>
+    <t>0987566333</t>
+  </si>
+  <si>
+    <t>01689452263</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>0,2</t>
   </si>
 </sst>
 </file>
@@ -407,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -723,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC606B52-8B35-4930-823E-DC6BDC95CF2D}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,9 +754,12 @@
     <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,8 +793,20 @@
       <c r="K1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -790,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
@@ -805,18 +835,30 @@
         <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -825,28 +867,40 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -860,28 +914,40 @@
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -895,68 +961,92 @@
         <v>2</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G5">
-        <v>7.5</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -965,380 +1055,509 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>7.8</v>
+        <v>4.2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
-        <v>6.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="B10" t="s">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>3.8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>7.9</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12">
-        <v>8.1</v>
+        <v>3.4</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13">
+        <v>2.9</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G13">
-        <v>6.5</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G14">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>82</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15">
+        <v>4.5</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>3.7</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G15">
-        <v>5.9</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="I16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16">
-        <v>6.8</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="J16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G17">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1" xr:uid="{012CD781-B90A-4A5E-A03D-51FEAB612BAC}"/>
+    <hyperlink ref="I13" r:id="rId1" display="congthang@gmail.com,01689452263" xr:uid="{012CD781-B90A-4A5E-A03D-51FEAB612BAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
